--- a/output7/【河洛文讀注音-閩拼調號】《桃花源記》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《桃花源記》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A34E1B6-A8CB-4CA9-A18B-2AA034EB1E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D79209-22B8-43ED-959D-1978CA07304D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" activeTab="2" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="28695" yWindow="-75" windowWidth="25815" windowHeight="15585" tabRatio="718" activeTab="2" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10470" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10474" uniqueCount="858">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1109,6 +1109,10 @@
   </si>
   <si>
     <t>各</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2449,10 +2453,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>khe11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kin7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2548,14 +2548,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>khio2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kio3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hut8</t>
   </si>
   <si>
@@ -3248,6 +3240,14 @@
   </si>
   <si>
     <t>khe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>khoo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(29, 17); (33, 18)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4228,7 +4228,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -4236,7 +4236,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -4244,7 +4244,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
@@ -4390,8 +4390,8 @@
   <dimension ref="A1:V803"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R9" sqref="R9"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="T3" s="13"/>
       <c r="V3" s="54" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
@@ -4566,13 +4566,13 @@
         <v>153</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H4" s="59" t="s">
         <v>49</v>
@@ -4587,7 +4587,7 @@
         <v>153</v>
       </c>
       <c r="L4" s="59" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M4" s="59" t="s">
         <v>86</v>
@@ -4596,7 +4596,7 @@
         <v>153</v>
       </c>
       <c r="O4" s="59" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P4" s="59" t="s">
         <v>75</v>
@@ -4620,16 +4620,16 @@
         <v>154</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G5" s="57" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>155</v>
@@ -4641,19 +4641,19 @@
         <v>156</v>
       </c>
       <c r="L5" s="57" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M5" s="57" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N5" s="57" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O5" s="57" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P5" s="57" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q5" s="57" t="s">
         <v>261</v>
@@ -4675,16 +4675,16 @@
         <v>153</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G6" s="59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H6" s="59" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I6" s="59" t="s">
         <v>153</v>
@@ -4696,22 +4696,22 @@
         <v>153</v>
       </c>
       <c r="L6" s="59" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M6" s="59" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N6" s="59" t="s">
         <v>153</v>
       </c>
       <c r="O6" s="59" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P6" s="59" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q6" s="60" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="R6" s="60" t="s">
         <v>153</v>
@@ -4767,7 +4767,7 @@
         <v>153</v>
       </c>
       <c r="R7" s="58" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="S7" s="48" t="s">
         <v>153</v>
@@ -4780,10 +4780,10 @@
         <v>86</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G8" s="59" t="s">
         <v>130</v>
@@ -4792,7 +4792,7 @@
         <v>153</v>
       </c>
       <c r="I8" s="59" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J8" s="59" t="s">
         <v>36</v>
@@ -4801,7 +4801,7 @@
         <v>39</v>
       </c>
       <c r="L8" s="59" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M8" s="59" t="s">
         <v>76</v>
@@ -4810,16 +4810,16 @@
         <v>82</v>
       </c>
       <c r="O8" s="59" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P8" s="59" t="s">
         <v>153</v>
       </c>
       <c r="Q8" s="59" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="R8" s="59" t="s">
-        <v>635</v>
+        <v>855</v>
       </c>
       <c r="S8" s="62" t="s">
         <v>153</v>
@@ -4832,13 +4832,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G9" s="57" t="s">
         <v>253</v>
@@ -4850,31 +4850,31 @@
         <v>230</v>
       </c>
       <c r="J9" s="57" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K9" s="57" t="s">
         <v>221</v>
       </c>
       <c r="L9" s="57" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M9" s="57" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N9" s="57" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O9" s="57" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P9" s="57" t="s">
         <v>162</v>
       </c>
       <c r="Q9" s="57" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="R9" s="57" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="S9" s="61" t="s">
         <v>153</v>
@@ -4885,49 +4885,49 @@
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="16"/>
       <c r="D10" s="59" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G10" s="59" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H10" s="59" t="s">
         <v>153</v>
       </c>
       <c r="I10" s="59" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J10" s="59" t="s">
         <v>186</v>
       </c>
       <c r="K10" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="L10" s="59" t="s">
+        <v>635</v>
+      </c>
+      <c r="M10" s="59" t="s">
         <v>286</v>
-      </c>
-      <c r="L10" s="59" t="s">
-        <v>634</v>
-      </c>
-      <c r="M10" s="59" t="s">
-        <v>285</v>
       </c>
       <c r="N10" s="59" t="s">
         <v>187</v>
       </c>
       <c r="O10" s="59" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P10" s="59" t="s">
         <v>153</v>
       </c>
       <c r="Q10" s="60" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="R10" s="60" t="s">
-        <v>153</v>
+        <v>692</v>
       </c>
       <c r="S10" s="63" t="s">
         <v>153</v>
@@ -5014,16 +5014,16 @@
         <v>153</v>
       </c>
       <c r="L12" s="59" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M12" s="59" t="s">
         <v>191</v>
       </c>
       <c r="N12" s="59" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O12" s="59" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P12" s="59" t="s">
         <v>81</v>
@@ -5045,13 +5045,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E13" s="57" t="s">
         <v>160</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G13" s="57" t="s">
         <v>233</v>
@@ -5063,31 +5063,31 @@
         <v>258</v>
       </c>
       <c r="J13" s="57" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K13" s="57" t="s">
         <v>162</v>
       </c>
       <c r="L13" s="57" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M13" s="57" t="s">
         <v>228</v>
       </c>
       <c r="N13" s="57" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O13" s="57" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P13" s="57" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q13" s="57" t="s">
         <v>160</v>
       </c>
       <c r="R13" s="57" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="S13" s="61" t="s">
         <v>153</v>
@@ -5103,7 +5103,7 @@
         <v>153</v>
       </c>
       <c r="F14" s="59" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G14" s="59" t="s">
         <v>214</v>
@@ -5112,7 +5112,7 @@
         <v>50</v>
       </c>
       <c r="I14" s="59" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J14" s="59" t="s">
         <v>637</v>
@@ -5121,19 +5121,19 @@
         <v>153</v>
       </c>
       <c r="L14" s="59" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M14" s="59" t="s">
         <v>192</v>
       </c>
       <c r="N14" s="59" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O14" s="59" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P14" s="59" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="60" t="s">
         <v>153</v>
@@ -5211,7 +5211,7 @@
         <v>41</v>
       </c>
       <c r="G16" s="59" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H16" s="59" t="s">
         <v>153</v>
@@ -5241,7 +5241,7 @@
         <v>88</v>
       </c>
       <c r="Q16" s="59" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R16" s="59" t="s">
         <v>153</v>
@@ -5257,7 +5257,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E17" s="57" t="s">
         <v>256</v>
@@ -5266,7 +5266,7 @@
         <v>270</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H17" s="57" t="s">
         <v>160</v>
@@ -5278,7 +5278,7 @@
         <v>166</v>
       </c>
       <c r="K17" s="57" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L17" s="57" t="s">
         <v>271</v>
@@ -5290,10 +5290,10 @@
         <v>272</v>
       </c>
       <c r="O17" s="57" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P17" s="57" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q17" s="57" t="s">
         <v>225</v>
@@ -5309,22 +5309,22 @@
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="16"/>
       <c r="D18" s="59" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E18" s="59" t="s">
         <v>201</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G18" s="59" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H18" s="59" t="s">
         <v>153</v>
       </c>
       <c r="I18" s="59" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J18" s="59" t="s">
         <v>197</v>
@@ -5333,7 +5333,7 @@
         <v>642</v>
       </c>
       <c r="L18" s="59" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M18" s="59" t="s">
         <v>153</v>
@@ -5348,7 +5348,7 @@
         <v>88</v>
       </c>
       <c r="Q18" s="60" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R18" s="60" t="s">
         <v>153</v>
@@ -5417,13 +5417,13 @@
         <v>134</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F20" s="59" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G20" s="59" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H20" s="59" t="s">
         <v>153</v>
@@ -5472,13 +5472,13 @@
         <v>247</v>
       </c>
       <c r="E21" s="57" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F21" s="57" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G21" s="57" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H21" s="57" t="s">
         <v>160</v>
@@ -5490,10 +5490,10 @@
         <v>221</v>
       </c>
       <c r="K21" s="57" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L21" s="57" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M21" s="57" t="s">
         <v>168</v>
@@ -5502,13 +5502,13 @@
         <v>162</v>
       </c>
       <c r="O21" s="57" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P21" s="57" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q21" s="57" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="R21" s="57" t="s">
         <v>160</v>
@@ -5524,22 +5524,22 @@
         <v>134</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F22" s="59" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G22" s="59" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H22" s="59" t="s">
         <v>153</v>
       </c>
       <c r="I22" s="59" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J22" s="59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K22" s="59" t="s">
         <v>647</v>
@@ -5629,7 +5629,7 @@
         <v>654</v>
       </c>
       <c r="E24" s="59" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F24" s="59" t="s">
         <v>42</v>
@@ -5681,7 +5681,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="57" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E25" s="57" t="s">
         <v>240</v>
@@ -5690,7 +5690,7 @@
         <v>243</v>
       </c>
       <c r="G25" s="57" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H25" s="57" t="s">
         <v>162</v>
@@ -5738,13 +5738,13 @@
         <v>655</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F26" s="59" t="s">
         <v>146</v>
       </c>
       <c r="G26" s="59" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H26" s="59" t="s">
         <v>153</v>
@@ -5847,13 +5847,13 @@
         <v>81</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F28" s="59" t="s">
         <v>182</v>
       </c>
       <c r="G28" s="59" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H28" s="59" t="s">
         <v>153</v>
@@ -5883,7 +5883,7 @@
         <v>659</v>
       </c>
       <c r="Q28" s="59" t="s">
-        <v>661</v>
+        <v>856</v>
       </c>
       <c r="R28" s="59" t="s">
         <v>153</v>
@@ -5903,7 +5903,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E29" s="57" t="s">
         <v>224</v>
@@ -5912,13 +5912,13 @@
         <v>163</v>
       </c>
       <c r="G29" s="57" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H29" s="57" t="s">
         <v>160</v>
       </c>
       <c r="I29" s="57" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J29" s="57" t="s">
         <v>239</v>
@@ -5939,10 +5939,10 @@
         <v>161</v>
       </c>
       <c r="P29" s="57" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q29" s="57" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="R29" s="57" t="s">
         <v>160</v>
@@ -5959,16 +5959,16 @@
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="16"/>
       <c r="D30" s="59" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F30" s="59" t="s">
         <v>183</v>
       </c>
       <c r="G30" s="59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H30" s="59" t="s">
         <v>153</v>
@@ -5980,7 +5980,7 @@
         <v>188</v>
       </c>
       <c r="K30" s="59" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L30" s="59" t="s">
         <v>53</v>
@@ -5998,7 +5998,7 @@
         <v>660</v>
       </c>
       <c r="Q30" s="60" t="s">
-        <v>662</v>
+        <v>278</v>
       </c>
       <c r="R30" s="60" t="s">
         <v>153</v>
@@ -6075,7 +6075,7 @@
         <v>192</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F32" s="59" t="s">
         <v>62</v>
@@ -6093,28 +6093,28 @@
         <v>657</v>
       </c>
       <c r="K32" s="59" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L32" s="59" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M32" s="59" t="s">
         <v>153</v>
       </c>
       <c r="N32" s="59" t="s">
+        <v>664</v>
+      </c>
+      <c r="O32" s="59" t="s">
+        <v>856</v>
+      </c>
+      <c r="P32" s="59" t="s">
         <v>666</v>
       </c>
-      <c r="O32" s="59" t="s">
-        <v>661</v>
-      </c>
-      <c r="P32" s="59" t="s">
-        <v>668</v>
-      </c>
       <c r="Q32" s="59" t="s">
         <v>153</v>
       </c>
       <c r="R32" s="59" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="S32" s="62" t="s">
         <v>153</v>
@@ -6131,13 +6131,13 @@
         <v>8</v>
       </c>
       <c r="D33" s="57" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E33" s="57" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F33" s="57" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G33" s="57" t="s">
         <v>161</v>
@@ -6149,31 +6149,31 @@
         <v>162</v>
       </c>
       <c r="J33" s="57" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K33" s="57" t="s">
         <v>269</v>
       </c>
       <c r="L33" s="57" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M33" s="57" t="s">
         <v>160</v>
       </c>
       <c r="N33" s="57" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O33" s="57" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P33" s="57" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q33" s="57" t="s">
         <v>162</v>
       </c>
       <c r="R33" s="57" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="S33" s="61" t="s">
         <v>153</v>
@@ -6183,19 +6183,19 @@
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="16"/>
       <c r="D34" s="59" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E34" s="59" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F34" s="59" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G34" s="59" t="s">
         <v>180</v>
       </c>
       <c r="H34" s="59" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I34" s="59" t="s">
         <v>153</v>
@@ -6204,28 +6204,28 @@
         <v>658</v>
       </c>
       <c r="K34" s="59" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L34" s="59" t="s">
+        <v>663</v>
+      </c>
+      <c r="M34" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="N34" s="59" t="s">
         <v>665</v>
       </c>
-      <c r="M34" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="N34" s="59" t="s">
+      <c r="O34" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="P34" s="59" t="s">
         <v>667</v>
       </c>
-      <c r="O34" s="59" t="s">
-        <v>662</v>
-      </c>
-      <c r="P34" s="59" t="s">
+      <c r="Q34" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="R34" s="60" t="s">
         <v>669</v>
-      </c>
-      <c r="Q34" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="R34" s="60" t="s">
-        <v>671</v>
       </c>
       <c r="S34" s="63" t="s">
         <v>153</v>
@@ -6291,16 +6291,16 @@
         <v>60</v>
       </c>
       <c r="E36" s="59" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F36" s="59" t="s">
         <v>153</v>
       </c>
       <c r="G36" s="59" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H36" s="59" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I36" s="59" t="s">
         <v>39</v>
@@ -6318,19 +6318,19 @@
         <v>200</v>
       </c>
       <c r="N36" s="59" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O36" s="59" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="P36" s="59" t="s">
         <v>153</v>
       </c>
       <c r="Q36" s="59" t="s">
+        <v>674</v>
+      </c>
+      <c r="R36" s="59" t="s">
         <v>676</v>
-      </c>
-      <c r="R36" s="59" t="s">
-        <v>678</v>
       </c>
       <c r="S36" s="62" t="s">
         <v>153</v>
@@ -6346,16 +6346,16 @@
         <v>254</v>
       </c>
       <c r="E37" s="57" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F37" s="57" t="s">
         <v>160</v>
       </c>
       <c r="G37" s="57" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H37" s="57" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I37" s="57" t="s">
         <v>221</v>
@@ -6364,10 +6364,10 @@
         <v>162</v>
       </c>
       <c r="K37" s="57" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L37" s="57" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M37" s="57" t="s">
         <v>256</v>
@@ -6376,16 +6376,16 @@
         <v>226</v>
       </c>
       <c r="O37" s="57" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P37" s="57" t="s">
         <v>160</v>
       </c>
       <c r="Q37" s="57" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="R37" s="57" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="S37" s="61" t="s">
         <v>153</v>
@@ -6395,22 +6395,22 @@
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="16"/>
       <c r="D38" s="59" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E38" s="59" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F38" s="59" t="s">
         <v>153</v>
       </c>
       <c r="G38" s="59" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H38" s="59" t="s">
         <v>131</v>
       </c>
       <c r="I38" s="59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J38" s="59" t="s">
         <v>153</v>
@@ -6425,19 +6425,19 @@
         <v>201</v>
       </c>
       <c r="N38" s="59" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O38" s="59" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="P38" s="59" t="s">
         <v>153</v>
       </c>
       <c r="Q38" s="60" t="s">
+        <v>675</v>
+      </c>
+      <c r="R38" s="60" t="s">
         <v>677</v>
-      </c>
-      <c r="R38" s="60" t="s">
-        <v>679</v>
       </c>
       <c r="S38" s="63" t="s">
         <v>153</v>
@@ -6500,22 +6500,22 @@
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="14"/>
       <c r="D40" s="59" t="s">
+        <v>679</v>
+      </c>
+      <c r="E40" s="59" t="s">
         <v>681</v>
       </c>
-      <c r="E40" s="59" t="s">
+      <c r="F40" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" s="59" t="s">
         <v>683</v>
       </c>
-      <c r="F40" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="G40" s="59" t="s">
-        <v>685</v>
-      </c>
       <c r="H40" s="59" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I40" s="59" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J40" s="59" t="s">
         <v>77</v>
@@ -6524,16 +6524,16 @@
         <v>153</v>
       </c>
       <c r="L40" s="59" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="M40" s="59" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N40" s="59" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O40" s="59" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="P40" s="59" t="s">
         <v>153</v>
@@ -6555,22 +6555,22 @@
         <v>10</v>
       </c>
       <c r="D41" s="57" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E41" s="57" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F41" s="57" t="s">
         <v>162</v>
       </c>
       <c r="G41" s="57" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H41" s="57" t="s">
         <v>219</v>
       </c>
       <c r="I41" s="57" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="J41" s="57" t="s">
         <v>242</v>
@@ -6579,7 +6579,7 @@
         <v>160</v>
       </c>
       <c r="L41" s="57" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M41" s="57" t="s">
         <v>269</v>
@@ -6588,7 +6588,7 @@
         <v>238</v>
       </c>
       <c r="O41" s="57" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P41" s="57" t="s">
         <v>160</v>
@@ -6597,7 +6597,7 @@
         <v>161</v>
       </c>
       <c r="R41" s="57" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="S41" s="61" t="s">
         <v>153</v>
@@ -6607,40 +6607,40 @@
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="16"/>
       <c r="D42" s="59" t="s">
+        <v>680</v>
+      </c>
+      <c r="E42" s="59" t="s">
         <v>682</v>
       </c>
-      <c r="E42" s="59" t="s">
+      <c r="F42" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" s="59" t="s">
         <v>684</v>
       </c>
-      <c r="F42" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="G42" s="59" t="s">
+      <c r="H42" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="I42" s="59" t="s">
+        <v>354</v>
+      </c>
+      <c r="J42" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="K42" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="L42" s="59" t="s">
         <v>686</v>
       </c>
-      <c r="H42" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="I42" s="59" t="s">
-        <v>353</v>
-      </c>
-      <c r="J42" s="59" t="s">
-        <v>340</v>
-      </c>
-      <c r="K42" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="L42" s="59" t="s">
-        <v>688</v>
-      </c>
       <c r="M42" s="59" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N42" s="59" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O42" s="59" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="P42" s="59" t="s">
         <v>153</v>
@@ -6712,16 +6712,16 @@
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="14"/>
       <c r="D44" s="59" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E44" s="59" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F44" s="59" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G44" s="59" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H44" s="59" t="s">
         <v>203</v>
@@ -6742,19 +6742,19 @@
         <v>198</v>
       </c>
       <c r="N44" s="59" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O44" s="59" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="P44" s="59" t="s">
         <v>153</v>
       </c>
       <c r="Q44" s="59" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="R44" s="59" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="S44" s="62" t="s">
         <v>153</v>
@@ -6767,13 +6767,13 @@
         <v>11</v>
       </c>
       <c r="D45" s="57" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E45" s="57" t="s">
         <v>225</v>
       </c>
       <c r="F45" s="57" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G45" s="57" t="s">
         <v>266</v>
@@ -6791,25 +6791,25 @@
         <v>162</v>
       </c>
       <c r="L45" s="57" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M45" s="57" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N45" s="57" t="s">
         <v>223</v>
       </c>
       <c r="O45" s="57" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P45" s="57" t="s">
         <v>160</v>
       </c>
       <c r="Q45" s="57" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="R45" s="57" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="S45" s="61" t="s">
         <v>153</v>
@@ -6819,16 +6819,16 @@
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="16"/>
       <c r="D46" s="59" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E46" s="59" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F46" s="59" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G46" s="59" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H46" s="59" t="s">
         <v>204</v>
@@ -6846,10 +6846,10 @@
         <v>56</v>
       </c>
       <c r="M46" s="59" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="N46" s="59" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O46" s="59" t="s">
         <v>131</v>
@@ -6858,10 +6858,10 @@
         <v>153</v>
       </c>
       <c r="Q46" s="60" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="R46" s="60" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="S46" s="63" t="s">
         <v>153</v>
@@ -6924,7 +6924,7 @@
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="14"/>
       <c r="D48" s="59" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E48" s="59" t="s">
         <v>48</v>
@@ -6945,7 +6945,7 @@
         <v>195</v>
       </c>
       <c r="K48" s="59" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="L48" s="59" t="s">
         <v>47</v>
@@ -6957,13 +6957,13 @@
         <v>59</v>
       </c>
       <c r="O48" s="59" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P48" s="59" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q48" s="59" t="s">
         <v>702</v>
-      </c>
-      <c r="Q48" s="59" t="s">
-        <v>704</v>
       </c>
       <c r="R48" s="59" t="s">
         <v>153</v>
@@ -6982,7 +6982,7 @@
         <v>259</v>
       </c>
       <c r="E49" s="57" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F49" s="57" t="s">
         <v>162</v>
@@ -6994,13 +6994,13 @@
         <v>253</v>
       </c>
       <c r="I49" s="57" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J49" s="57" t="s">
         <v>165</v>
       </c>
       <c r="K49" s="57" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L49" s="57" t="s">
         <v>232</v>
@@ -7009,16 +7009,16 @@
         <v>160</v>
       </c>
       <c r="N49" s="57" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O49" s="57" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P49" s="57" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q49" s="57" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="R49" s="57" t="s">
         <v>160</v>
@@ -7031,10 +7031,10 @@
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="16"/>
       <c r="D50" s="59" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E50" s="59" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F50" s="59" t="s">
         <v>153</v>
@@ -7043,19 +7043,19 @@
         <v>146</v>
       </c>
       <c r="H50" s="59" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I50" s="59" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="J50" s="59" t="s">
         <v>196</v>
       </c>
       <c r="K50" s="59" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="L50" s="59" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M50" s="59" t="s">
         <v>153</v>
@@ -7064,13 +7064,13 @@
         <v>61</v>
       </c>
       <c r="O50" s="59" t="s">
+        <v>699</v>
+      </c>
+      <c r="P50" s="59" t="s">
         <v>701</v>
       </c>
-      <c r="P50" s="59" t="s">
+      <c r="Q50" s="60" t="s">
         <v>703</v>
-      </c>
-      <c r="Q50" s="60" t="s">
-        <v>705</v>
       </c>
       <c r="R50" s="60" t="s">
         <v>153</v>
@@ -7154,31 +7154,31 @@
         <v>191</v>
       </c>
       <c r="J52" s="59" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K52" s="59" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L52" s="59" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="M52" s="59" t="s">
         <v>153</v>
       </c>
       <c r="N52" s="59" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O52" s="59" t="s">
         <v>79</v>
       </c>
       <c r="P52" s="59" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="Q52" s="59" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="R52" s="59" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="S52" s="62" t="s">
         <v>153</v>
@@ -7191,7 +7191,7 @@
         <v>13</v>
       </c>
       <c r="D53" s="57" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E53" s="57" t="s">
         <v>227</v>
@@ -7209,31 +7209,31 @@
         <v>246</v>
       </c>
       <c r="J53" s="57" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K53" s="57" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L53" s="57" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M53" s="57" t="s">
         <v>160</v>
       </c>
       <c r="N53" s="57" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O53" s="57" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P53" s="57" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q53" s="57" t="s">
         <v>274</v>
       </c>
       <c r="R53" s="57" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="S53" s="61" t="s">
         <v>153</v>
@@ -7249,10 +7249,10 @@
         <v>194</v>
       </c>
       <c r="F54" s="59" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G54" s="59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H54" s="59" t="s">
         <v>153</v>
@@ -7261,13 +7261,13 @@
         <v>192</v>
       </c>
       <c r="J54" s="59" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K54" s="59" t="s">
         <v>182</v>
       </c>
       <c r="L54" s="59" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="M54" s="59" t="s">
         <v>153</v>
@@ -7276,16 +7276,16 @@
         <v>38</v>
       </c>
       <c r="O54" s="59" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P54" s="59" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="Q54" s="60" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="R54" s="60" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="S54" s="63" t="s">
         <v>153</v>
@@ -7562,7 +7562,7 @@
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="14"/>
       <c r="D60" s="59" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E60" s="59" t="s">
         <v>76</v>
@@ -7574,10 +7574,10 @@
         <v>153</v>
       </c>
       <c r="H60" s="59" t="s">
+        <v>707</v>
+      </c>
+      <c r="I60" s="59" t="s">
         <v>709</v>
-      </c>
-      <c r="I60" s="59" t="s">
-        <v>711</v>
       </c>
       <c r="J60" s="59" t="s">
         <v>71</v>
@@ -7586,13 +7586,13 @@
         <v>153</v>
       </c>
       <c r="L60" s="59" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M60" s="59" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N60" s="59" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="O60" s="59" t="s">
         <v>195</v>
@@ -7604,7 +7604,7 @@
         <v>43</v>
       </c>
       <c r="R60" s="59" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="S60" s="62" t="s">
         <v>153</v>
@@ -7629,10 +7629,10 @@
         <v>160</v>
       </c>
       <c r="H61" s="57" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I61" s="57" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J61" s="57" t="s">
         <v>251</v>
@@ -7641,13 +7641,13 @@
         <v>160</v>
       </c>
       <c r="L61" s="57" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M61" s="57" t="s">
         <v>262</v>
       </c>
       <c r="N61" s="57" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O61" s="57" t="s">
         <v>165</v>
@@ -7659,7 +7659,7 @@
         <v>252</v>
       </c>
       <c r="R61" s="57" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="S61" s="61" t="s">
         <v>153</v>
@@ -7669,22 +7669,22 @@
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="16"/>
       <c r="D62" s="59" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E62" s="59" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F62" s="59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G62" s="59" t="s">
         <v>153</v>
       </c>
       <c r="H62" s="59" t="s">
+        <v>708</v>
+      </c>
+      <c r="I62" s="59" t="s">
         <v>710</v>
-      </c>
-      <c r="I62" s="59" t="s">
-        <v>712</v>
       </c>
       <c r="J62" s="59" t="s">
         <v>216</v>
@@ -7693,13 +7693,13 @@
         <v>153</v>
       </c>
       <c r="L62" s="59" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="M62" s="59" t="s">
         <v>200</v>
       </c>
       <c r="N62" s="59" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="O62" s="59" t="s">
         <v>196</v>
@@ -7708,10 +7708,10 @@
         <v>153</v>
       </c>
       <c r="Q62" s="60" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="R62" s="60" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="S62" s="63" t="s">
         <v>153</v>
@@ -7783,40 +7783,40 @@
         <v>657</v>
       </c>
       <c r="G64" s="59" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H64" s="59" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I64" s="59" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J64" s="59" t="s">
         <v>153</v>
       </c>
       <c r="K64" s="59" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="L64" s="59" t="s">
+        <v>726</v>
+      </c>
+      <c r="M64" s="59" t="s">
         <v>728</v>
       </c>
-      <c r="M64" s="59" t="s">
-        <v>730</v>
-      </c>
       <c r="N64" s="59" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="O64" s="59" t="s">
         <v>47</v>
       </c>
       <c r="P64" s="59" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q64" s="59" t="s">
         <v>153</v>
       </c>
       <c r="R64" s="59" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S64" s="62" t="s">
         <v>153</v>
@@ -7835,13 +7835,13 @@
         <v>162</v>
       </c>
       <c r="F65" s="57" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G65" s="57" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H65" s="57" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I65" s="57" t="s">
         <v>231</v>
@@ -7850,16 +7850,16 @@
         <v>160</v>
       </c>
       <c r="K65" s="57" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L65" s="57" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M65" s="57" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N65" s="57" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O65" s="57" t="s">
         <v>232</v>
@@ -7871,7 +7871,7 @@
         <v>162</v>
       </c>
       <c r="R65" s="57" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="S65" s="61" t="s">
         <v>153</v>
@@ -7890,40 +7890,40 @@
         <v>658</v>
       </c>
       <c r="G66" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="H66" s="59" t="s">
         <v>721</v>
       </c>
-      <c r="H66" s="59" t="s">
-        <v>723</v>
-      </c>
       <c r="I66" s="59" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J66" s="59" t="s">
         <v>153</v>
       </c>
       <c r="K66" s="59" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="L66" s="59" t="s">
+        <v>727</v>
+      </c>
+      <c r="M66" s="59" t="s">
         <v>729</v>
       </c>
-      <c r="M66" s="59" t="s">
-        <v>731</v>
-      </c>
       <c r="N66" s="59" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="O66" s="59" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P66" s="59" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q66" s="60" t="s">
         <v>153</v>
       </c>
       <c r="R66" s="60" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S66" s="63" t="s">
         <v>153</v>
@@ -8004,22 +8004,22 @@
         <v>153</v>
       </c>
       <c r="J68" s="59" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="K68" s="59" t="s">
         <v>195</v>
       </c>
       <c r="L68" s="59" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M68" s="59" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N68" s="59" t="s">
         <v>153</v>
       </c>
       <c r="O68" s="59" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P68" s="59" t="s">
         <v>189</v>
@@ -8028,7 +8028,7 @@
         <v>88</v>
       </c>
       <c r="R68" s="59" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S68" s="62" t="s">
         <v>153</v>
@@ -8044,13 +8044,13 @@
         <v>253</v>
       </c>
       <c r="E69" s="57" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F69" s="57" t="s">
         <v>161</v>
       </c>
       <c r="G69" s="57" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H69" s="57" t="s">
         <v>221</v>
@@ -8059,16 +8059,16 @@
         <v>160</v>
       </c>
       <c r="J69" s="57" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K69" s="57" t="s">
         <v>165</v>
       </c>
       <c r="L69" s="57" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M69" s="57" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N69" s="57" t="s">
         <v>162</v>
@@ -8080,10 +8080,10 @@
         <v>172</v>
       </c>
       <c r="Q69" s="57" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="R69" s="57" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="S69" s="61" t="s">
         <v>153</v>
@@ -8093,31 +8093,31 @@
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="16"/>
       <c r="D70" s="59" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E70" s="59" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F70" s="59" t="s">
         <v>180</v>
       </c>
       <c r="G70" s="59" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H70" s="59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I70" s="59" t="s">
         <v>153</v>
       </c>
       <c r="J70" s="59" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K70" s="59" t="s">
         <v>196</v>
       </c>
       <c r="L70" s="59" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="M70" s="59" t="s">
         <v>78</v>
@@ -8126,7 +8126,7 @@
         <v>153</v>
       </c>
       <c r="O70" s="59" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P70" s="59" t="s">
         <v>190</v>
@@ -8135,7 +8135,7 @@
         <v>88</v>
       </c>
       <c r="R70" s="60" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S70" s="63" t="s">
         <v>153</v>
@@ -8198,31 +8198,31 @@
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="14"/>
       <c r="D72" s="59" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E72" s="59" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F72" s="59" t="s">
         <v>87</v>
       </c>
       <c r="G72" s="59" t="s">
+        <v>735</v>
+      </c>
+      <c r="H72" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="I72" s="59" t="s">
         <v>737</v>
       </c>
-      <c r="H72" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="I72" s="59" t="s">
-        <v>739</v>
-      </c>
       <c r="J72" s="59" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="K72" s="59" t="s">
         <v>33</v>
       </c>
       <c r="L72" s="59" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="M72" s="59" t="s">
         <v>39</v>
@@ -8234,7 +8234,7 @@
         <v>57</v>
       </c>
       <c r="P72" s="59" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="Q72" s="59" t="s">
         <v>70</v>
@@ -8253,31 +8253,31 @@
         <v>18</v>
       </c>
       <c r="D73" s="57" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E73" s="57" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F73" s="57" t="s">
         <v>236</v>
       </c>
       <c r="G73" s="57" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H73" s="57" t="s">
         <v>160</v>
       </c>
       <c r="I73" s="57" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J73" s="57" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K73" s="57" t="s">
         <v>171</v>
       </c>
       <c r="L73" s="57" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M73" s="57" t="s">
         <v>221</v>
@@ -8286,13 +8286,13 @@
         <v>165</v>
       </c>
       <c r="O73" s="57" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P73" s="57" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q73" s="57" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="R73" s="57" t="s">
         <v>160</v>
@@ -8305,46 +8305,46 @@
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="16"/>
       <c r="D74" s="59" t="s">
+        <v>734</v>
+      </c>
+      <c r="E74" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="F74" s="59" t="s">
+        <v>322</v>
+      </c>
+      <c r="G74" s="59" t="s">
         <v>736</v>
       </c>
-      <c r="E74" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="F74" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="G74" s="59" t="s">
+      <c r="H74" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="I74" s="59" t="s">
         <v>738</v>
       </c>
-      <c r="H74" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="I74" s="59" t="s">
+      <c r="J74" s="59" t="s">
         <v>740</v>
-      </c>
-      <c r="J74" s="59" t="s">
-        <v>742</v>
       </c>
       <c r="K74" s="59" t="s">
         <v>207</v>
       </c>
       <c r="L74" s="59" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="M74" s="59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N74" s="59" t="s">
         <v>196</v>
       </c>
       <c r="O74" s="59" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P74" s="59" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="Q74" s="60" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="R74" s="60" t="s">
         <v>153</v>
@@ -8416,7 +8416,7 @@
         <v>651</v>
       </c>
       <c r="F76" s="59" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G76" s="59" t="s">
         <v>75</v>
@@ -8425,7 +8425,7 @@
         <v>153</v>
       </c>
       <c r="I76" s="59" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="J76" s="59" t="s">
         <v>128</v>
@@ -8437,7 +8437,7 @@
         <v>39</v>
       </c>
       <c r="M76" s="59" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N76" s="59" t="s">
         <v>140</v>
@@ -8446,7 +8446,7 @@
         <v>153</v>
       </c>
       <c r="P76" s="59" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q76" s="59" t="s">
         <v>44</v>
@@ -8468,19 +8468,19 @@
         <v>158</v>
       </c>
       <c r="E77" s="57" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F77" s="57" t="s">
         <v>234</v>
       </c>
       <c r="G77" s="57" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H77" s="57" t="s">
         <v>160</v>
       </c>
       <c r="I77" s="57" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="J77" s="57" t="s">
         <v>248</v>
@@ -8495,13 +8495,13 @@
         <v>257</v>
       </c>
       <c r="N77" s="57" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O77" s="57" t="s">
         <v>162</v>
       </c>
       <c r="P77" s="57" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Q77" s="57" t="s">
         <v>273</v>
@@ -8523,28 +8523,28 @@
         <v>651</v>
       </c>
       <c r="F78" s="59" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G78" s="59" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H78" s="59" t="s">
         <v>153</v>
       </c>
       <c r="I78" s="59" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J78" s="59" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K78" s="59" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L78" s="59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M78" s="59" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N78" s="59" t="s">
         <v>141</v>
@@ -8553,7 +8553,7 @@
         <v>153</v>
       </c>
       <c r="P78" s="59" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="Q78" s="60" t="s">
         <v>202</v>
@@ -8625,25 +8625,25 @@
         <v>40</v>
       </c>
       <c r="E80" s="59" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F80" s="59" t="s">
         <v>153</v>
       </c>
       <c r="G80" s="59" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H80" s="59" t="s">
         <v>63</v>
       </c>
       <c r="I80" s="59" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J80" s="59" t="s">
         <v>67</v>
       </c>
       <c r="K80" s="59" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="L80" s="59" t="s">
         <v>153</v>
@@ -8652,10 +8652,10 @@
         <v>55</v>
       </c>
       <c r="N80" s="59" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="O80" s="59" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="P80" s="59" t="s">
         <v>86</v>
@@ -8680,13 +8680,13 @@
         <v>174</v>
       </c>
       <c r="E81" s="57" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F81" s="57" t="s">
         <v>160</v>
       </c>
       <c r="G81" s="57" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H81" s="57" t="s">
         <v>158</v>
@@ -8698,7 +8698,7 @@
         <v>161</v>
       </c>
       <c r="K81" s="57" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L81" s="57" t="s">
         <v>160</v>
@@ -8707,19 +8707,19 @@
         <v>166</v>
       </c>
       <c r="N81" s="57" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O81" s="57" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P81" s="57" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q81" s="57" t="s">
         <v>162</v>
       </c>
       <c r="R81" s="57" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="S81" s="61" t="s">
         <v>153</v>
@@ -8732,25 +8732,25 @@
         <v>210</v>
       </c>
       <c r="E82" s="59" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F82" s="59" t="s">
         <v>153</v>
       </c>
       <c r="G82" s="59" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H82" s="59" t="s">
         <v>178</v>
       </c>
       <c r="I82" s="59" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J82" s="59" t="s">
         <v>180</v>
       </c>
       <c r="K82" s="59" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L82" s="59" t="s">
         <v>153</v>
@@ -8759,19 +8759,19 @@
         <v>197</v>
       </c>
       <c r="N82" s="59" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="O82" s="59" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="P82" s="59" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Q82" s="60" t="s">
         <v>153</v>
       </c>
       <c r="R82" s="60" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="S82" s="63" t="s">
         <v>153</v>
@@ -8849,10 +8849,10 @@
         <v>43</v>
       </c>
       <c r="I84" s="59" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J84" s="59" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K84" s="59" t="s">
         <v>48</v>
@@ -8861,13 +8861,13 @@
         <v>153</v>
       </c>
       <c r="M84" s="59" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N84" s="59" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="O84" s="59" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="P84" s="59" t="s">
         <v>153</v>
@@ -8898,7 +8898,7 @@
         <v>249</v>
       </c>
       <c r="G85" s="57" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H85" s="57" t="s">
         <v>252</v>
@@ -8910,19 +8910,19 @@
         <v>262</v>
       </c>
       <c r="K85" s="57" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L85" s="57" t="s">
         <v>160</v>
       </c>
       <c r="M85" s="57" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N85" s="57" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O85" s="57" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P85" s="57" t="s">
         <v>162</v>
@@ -8941,49 +8941,49 @@
     <row r="86" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="16"/>
       <c r="D86" s="59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E86" s="59" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F86" s="59" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G86" s="59" t="s">
         <v>187</v>
       </c>
       <c r="H86" s="59" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I86" s="59" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J86" s="59" t="s">
         <v>200</v>
       </c>
       <c r="K86" s="59" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L86" s="59" t="s">
         <v>153</v>
       </c>
       <c r="M86" s="59" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="N86" s="59" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="O86" s="59" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P86" s="59" t="s">
         <v>153</v>
       </c>
       <c r="Q86" s="60" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R86" s="60" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="S86" s="63" t="s">
         <v>153</v>
@@ -9052,7 +9052,7 @@
         <v>651</v>
       </c>
       <c r="F88" s="59" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G88" s="59" t="s">
         <v>69</v>
@@ -9061,28 +9061,28 @@
         <v>42</v>
       </c>
       <c r="I88" s="59" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J88" s="59" t="s">
         <v>153</v>
       </c>
       <c r="K88" s="59" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="L88" s="59" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M88" s="59" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="N88" s="59" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O88" s="59" t="s">
         <v>153</v>
       </c>
       <c r="P88" s="59" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q88" s="59" t="s">
         <v>200</v>
@@ -9104,13 +9104,13 @@
         <v>277</v>
       </c>
       <c r="E89" s="57" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F89" s="57" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G89" s="57" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H89" s="57" t="s">
         <v>243</v>
@@ -9122,13 +9122,13 @@
         <v>160</v>
       </c>
       <c r="K89" s="57" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L89" s="57" t="s">
         <v>234</v>
       </c>
       <c r="M89" s="57" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N89" s="57" t="s">
         <v>244</v>
@@ -9137,7 +9137,7 @@
         <v>162</v>
       </c>
       <c r="P89" s="57" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Q89" s="57" t="s">
         <v>256</v>
@@ -9153,49 +9153,49 @@
     <row r="90" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="16"/>
       <c r="D90" s="59" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E90" s="59" t="s">
         <v>651</v>
       </c>
       <c r="F90" s="59" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G90" s="59" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H90" s="59" t="s">
         <v>146</v>
       </c>
       <c r="I90" s="59" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J90" s="59" t="s">
         <v>153</v>
       </c>
       <c r="K90" s="59" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="L90" s="59" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M90" s="59" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="N90" s="59" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O90" s="59" t="s">
         <v>153</v>
       </c>
       <c r="P90" s="59" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q90" s="60" t="s">
         <v>201</v>
       </c>
       <c r="R90" s="60" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S90" s="63" t="s">
         <v>153</v>
@@ -9261,10 +9261,10 @@
         <v>153</v>
       </c>
       <c r="E92" s="59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F92" s="59" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G92" s="59" t="s">
         <v>153</v>
@@ -9279,7 +9279,7 @@
         <v>39</v>
       </c>
       <c r="K92" s="59" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L92" s="59" t="s">
         <v>208</v>
@@ -9294,7 +9294,7 @@
         <v>63</v>
       </c>
       <c r="P92" s="59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q92" s="59" t="s">
         <v>82</v>
@@ -9316,16 +9316,16 @@
         <v>160</v>
       </c>
       <c r="E93" s="57" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F93" s="57" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G93" s="57" t="s">
         <v>162</v>
       </c>
       <c r="H93" s="57" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I93" s="57" t="s">
         <v>253</v>
@@ -9334,25 +9334,25 @@
         <v>221</v>
       </c>
       <c r="K93" s="57" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L93" s="57" t="s">
         <v>173</v>
       </c>
       <c r="M93" s="57" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N93" s="57" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="O93" s="57" t="s">
         <v>158</v>
       </c>
       <c r="P93" s="57" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q93" s="57" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R93" s="57" t="s">
         <v>132</v>
@@ -9371,22 +9371,22 @@
         <v>129</v>
       </c>
       <c r="F94" s="59" t="s">
+        <v>761</v>
+      </c>
+      <c r="G94" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="H94" s="59" t="s">
+        <v>378</v>
+      </c>
+      <c r="I94" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="J94" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="K94" s="59" t="s">
         <v>763</v>
-      </c>
-      <c r="G94" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="H94" s="59" t="s">
-        <v>377</v>
-      </c>
-      <c r="I94" s="59" t="s">
-        <v>362</v>
-      </c>
-      <c r="J94" s="59" t="s">
-        <v>286</v>
-      </c>
-      <c r="K94" s="59" t="s">
-        <v>765</v>
       </c>
       <c r="L94" s="59" t="s">
         <v>209</v>
@@ -9401,13 +9401,13 @@
         <v>178</v>
       </c>
       <c r="P94" s="59" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q94" s="60" t="s">
         <v>187</v>
       </c>
       <c r="R94" s="60" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S94" s="63" t="s">
         <v>153</v>
@@ -9473,10 +9473,10 @@
         <v>39</v>
       </c>
       <c r="E96" s="59" t="s">
+        <v>764</v>
+      </c>
+      <c r="F96" s="59" t="s">
         <v>766</v>
-      </c>
-      <c r="F96" s="59" t="s">
-        <v>768</v>
       </c>
       <c r="G96" s="59" t="s">
         <v>153</v>
@@ -9528,16 +9528,16 @@
         <v>221</v>
       </c>
       <c r="E97" s="57" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F97" s="57" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G97" s="57" t="s">
         <v>162</v>
       </c>
       <c r="H97" s="57" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="I97" s="57" t="str">
         <f>CHAR(10)</f>
@@ -9579,13 +9579,13 @@
     <row r="98" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="16"/>
       <c r="D98" s="59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E98" s="59" t="s">
+        <v>765</v>
+      </c>
+      <c r="F98" s="59" t="s">
         <v>767</v>
-      </c>
-      <c r="F98" s="59" t="s">
-        <v>769</v>
       </c>
       <c r="G98" s="59" t="s">
         <v>153</v>
@@ -9687,7 +9687,7 @@
         <v>49</v>
       </c>
       <c r="E100" s="59" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F100" s="59" t="s">
         <v>153</v>
@@ -9699,7 +9699,7 @@
         <v>42</v>
       </c>
       <c r="I100" s="59" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J100" s="59" t="s">
         <v>153</v>
@@ -9708,10 +9708,10 @@
         <v>657</v>
       </c>
       <c r="L100" s="59" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M100" s="59" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="N100" s="59" t="s">
         <v>213</v>
@@ -9754,19 +9754,19 @@
         <v>243</v>
       </c>
       <c r="I101" s="57" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J101" s="57" t="s">
         <v>160</v>
       </c>
       <c r="K101" s="57" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L101" s="57" t="s">
         <v>265</v>
       </c>
       <c r="M101" s="57" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N101" s="57" t="s">
         <v>233</v>
@@ -9791,10 +9791,10 @@
     <row r="102" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="16"/>
       <c r="D102" s="59" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E102" s="59" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F102" s="59" t="s">
         <v>153</v>
@@ -9806,7 +9806,7 @@
         <v>146</v>
       </c>
       <c r="I102" s="59" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J102" s="59" t="s">
         <v>153</v>
@@ -9815,10 +9815,10 @@
         <v>658</v>
       </c>
       <c r="L102" s="59" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M102" s="59" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="N102" s="59" t="s">
         <v>214</v>
@@ -9827,13 +9827,13 @@
         <v>153</v>
       </c>
       <c r="P102" s="59" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q102" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="R102" s="60" t="s">
         <v>377</v>
-      </c>
-      <c r="Q102" s="60" t="s">
-        <v>377</v>
-      </c>
-      <c r="R102" s="60" t="s">
-        <v>376</v>
       </c>
       <c r="S102" s="63" t="s">
         <v>153</v>
@@ -9902,7 +9902,7 @@
         <v>153</v>
       </c>
       <c r="F104" s="59" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="G104" s="59" t="s">
         <v>37</v>
@@ -9914,10 +9914,10 @@
         <v>153</v>
       </c>
       <c r="J104" s="59" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="K104" s="59" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L104" s="59" t="s">
         <v>35</v>
@@ -9926,7 +9926,7 @@
         <v>153</v>
       </c>
       <c r="N104" s="59" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="O104" s="59" t="s">
         <v>193</v>
@@ -9938,7 +9938,7 @@
         <v>153</v>
       </c>
       <c r="R104" s="59" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="S104" s="62" t="s">
         <v>153</v>
@@ -9957,7 +9957,7 @@
         <v>162</v>
       </c>
       <c r="F105" s="57" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G105" s="57" t="s">
         <v>218</v>
@@ -9969,31 +9969,31 @@
         <v>160</v>
       </c>
       <c r="J105" s="57" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K105" s="57" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L105" s="57" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M105" s="57" t="s">
         <v>160</v>
       </c>
       <c r="N105" s="57" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O105" s="57" t="s">
         <v>227</v>
       </c>
       <c r="P105" s="57" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Q105" s="57" t="s">
         <v>162</v>
       </c>
       <c r="R105" s="57" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="S105" s="61" t="s">
         <v>153</v>
@@ -10009,43 +10009,43 @@
         <v>153</v>
       </c>
       <c r="F106" s="59" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G106" s="59" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H106" s="59" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I106" s="59" t="s">
         <v>153</v>
       </c>
       <c r="J106" s="59" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="K106" s="59" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L106" s="59" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M106" s="59" t="s">
         <v>153</v>
       </c>
       <c r="N106" s="59" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="O106" s="59" t="s">
         <v>194</v>
       </c>
       <c r="P106" s="59" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q106" s="60" t="s">
         <v>153</v>
       </c>
       <c r="R106" s="60" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S106" s="63" t="s">
         <v>153</v>
@@ -10114,13 +10114,13 @@
         <v>58</v>
       </c>
       <c r="F108" s="59" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G108" s="59" t="s">
         <v>39</v>
       </c>
       <c r="H108" s="59" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I108" s="59" t="s">
         <v>42</v>
@@ -10132,13 +10132,13 @@
         <v>153</v>
       </c>
       <c r="L108" s="59" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="M108" s="59" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="N108" s="59" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O108" s="59" t="s">
         <v>69</v>
@@ -10147,10 +10147,10 @@
         <v>153</v>
       </c>
       <c r="Q108" s="59" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="R108" s="59" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="S108" s="62" t="s">
         <v>153</v>
@@ -10163,34 +10163,34 @@
         <v>27</v>
       </c>
       <c r="D109" s="57" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E109" s="57" t="s">
         <v>241</v>
       </c>
       <c r="F109" s="57" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G109" s="57" t="s">
         <v>221</v>
       </c>
       <c r="H109" s="57" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I109" s="57" t="s">
         <v>243</v>
       </c>
       <c r="J109" s="57" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K109" s="57" t="s">
         <v>160</v>
       </c>
       <c r="L109" s="57" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M109" s="57" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N109" s="57" t="s">
         <v>262</v>
@@ -10202,10 +10202,10 @@
         <v>160</v>
       </c>
       <c r="Q109" s="57" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="R109" s="57" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="S109" s="61" t="s">
         <v>153</v>
@@ -10215,16 +10215,16 @@
     <row r="110" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="16"/>
       <c r="D110" s="59" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E110" s="59" t="s">
         <v>181</v>
       </c>
       <c r="F110" s="59" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G110" s="59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H110" s="59" t="s">
         <v>182</v>
@@ -10233,31 +10233,31 @@
         <v>146</v>
       </c>
       <c r="J110" s="59" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="K110" s="59" t="s">
         <v>153</v>
       </c>
       <c r="L110" s="59" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="M110" s="59" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="N110" s="59" t="s">
         <v>200</v>
       </c>
       <c r="O110" s="59" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P110" s="59" t="s">
         <v>153</v>
       </c>
       <c r="Q110" s="60" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="R110" s="60" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="S110" s="63" t="s">
         <v>153</v>
@@ -10381,7 +10381,7 @@
         <v>158</v>
       </c>
       <c r="F113" s="57" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G113" s="57" t="s">
         <v>239</v>
@@ -10561,7 +10561,7 @@
         <v>127</v>
       </c>
       <c r="M116" s="59" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="N116" s="59" t="s">
         <v>153</v>
@@ -10576,7 +10576,7 @@
         <v>153</v>
       </c>
       <c r="R116" s="59" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="S116" s="62" t="s">
         <v>153</v>
@@ -10595,13 +10595,13 @@
         <v>170</v>
       </c>
       <c r="F117" s="57" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G117" s="57" t="s">
         <v>171</v>
       </c>
       <c r="H117" s="57" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="I117" s="57" t="s">
         <v>160</v>
@@ -10610,19 +10610,19 @@
         <v>159</v>
       </c>
       <c r="K117" s="57" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L117" s="57" t="s">
         <v>229</v>
       </c>
       <c r="M117" s="57" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N117" s="57" t="s">
         <v>160</v>
       </c>
       <c r="O117" s="57" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P117" s="57" t="s">
         <v>168</v>
@@ -10631,7 +10631,7 @@
         <v>160</v>
       </c>
       <c r="R117" s="57" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="S117" s="61" t="s">
         <v>153</v>
@@ -10653,7 +10653,7 @@
         <v>207</v>
       </c>
       <c r="H118" s="59" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I118" s="59" t="s">
         <v>153</v>
@@ -10665,16 +10665,16 @@
         <v>148</v>
       </c>
       <c r="L118" s="59" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M118" s="59" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="N118" s="59" t="s">
         <v>153</v>
       </c>
       <c r="O118" s="59" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P118" s="59" t="s">
         <v>50</v>
@@ -10683,7 +10683,7 @@
         <v>153</v>
       </c>
       <c r="R118" s="60" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="S118" s="63" t="s">
         <v>153</v>
@@ -10746,10 +10746,10 @@
     <row r="120" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="14"/>
       <c r="D120" s="59" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E120" s="59" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F120" s="59" t="s">
         <v>215</v>
@@ -10758,37 +10758,37 @@
         <v>153</v>
       </c>
       <c r="H120" s="59" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="I120" s="59" t="s">
+        <v>792</v>
+      </c>
+      <c r="J120" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="K120" s="59" t="s">
+        <v>780</v>
+      </c>
+      <c r="L120" s="59" t="s">
         <v>794</v>
       </c>
-      <c r="J120" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="K120" s="59" t="s">
-        <v>782</v>
-      </c>
-      <c r="L120" s="59" t="s">
+      <c r="M120" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="N120" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="O120" s="59" t="s">
         <v>796</v>
       </c>
-      <c r="M120" s="59" t="s">
-        <v>346</v>
-      </c>
-      <c r="N120" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="O120" s="59" t="s">
-        <v>798</v>
-      </c>
       <c r="P120" s="59" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="Q120" s="59" t="s">
         <v>55</v>
       </c>
       <c r="R120" s="59" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="S120" s="62" t="s">
         <v>153</v>
@@ -10801,31 +10801,31 @@
         <v>30</v>
       </c>
       <c r="D121" s="57" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E121" s="57" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F121" s="57" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G121" s="57" t="s">
         <v>162</v>
       </c>
       <c r="H121" s="57" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="I121" s="57" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J121" s="57" t="s">
         <v>160</v>
       </c>
       <c r="K121" s="57" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L121" s="57" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M121" s="57" t="s">
         <v>268</v>
@@ -10834,16 +10834,16 @@
         <v>160</v>
       </c>
       <c r="O121" s="57" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="P121" s="57" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Q121" s="57" t="s">
         <v>166</v>
       </c>
       <c r="R121" s="57" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="S121" s="61" t="s">
         <v>153</v>
@@ -10853,49 +10853,49 @@
     <row r="122" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B122" s="16"/>
       <c r="D122" s="59" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E122" s="59" t="s">
+        <v>788</v>
+      </c>
+      <c r="F122" s="59" t="s">
+        <v>696</v>
+      </c>
+      <c r="G122" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="H122" s="59" t="s">
         <v>790</v>
       </c>
-      <c r="F122" s="59" t="s">
-        <v>698</v>
-      </c>
-      <c r="G122" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="H122" s="59" t="s">
-        <v>792</v>
-      </c>
       <c r="I122" s="59" t="s">
+        <v>793</v>
+      </c>
+      <c r="J122" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="K122" s="59" t="s">
+        <v>781</v>
+      </c>
+      <c r="L122" s="59" t="s">
         <v>795</v>
       </c>
-      <c r="J122" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="K122" s="59" t="s">
-        <v>783</v>
-      </c>
-      <c r="L122" s="59" t="s">
+      <c r="M122" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="N122" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="O122" s="59" t="s">
         <v>797</v>
       </c>
-      <c r="M122" s="59" t="s">
-        <v>346</v>
-      </c>
-      <c r="N122" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="O122" s="59" t="s">
-        <v>799</v>
-      </c>
       <c r="P122" s="59" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="Q122" s="60" t="s">
         <v>197</v>
       </c>
       <c r="R122" s="60" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="S122" s="63" t="s">
         <v>153</v>
@@ -10958,10 +10958,10 @@
     <row r="124" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="14"/>
       <c r="D124" s="59" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E124" s="59" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F124" s="59" t="s">
         <v>153</v>
@@ -11016,7 +11016,7 @@
         <v>245</v>
       </c>
       <c r="E125" s="57" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F125" s="57" t="s">
         <v>162</v>
@@ -11067,10 +11067,10 @@
     <row r="126" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="16"/>
       <c r="D126" s="59" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E126" s="59" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F126" s="59" t="s">
         <v>153</v>
@@ -25462,10 +25462,10 @@
         <v>153</v>
       </c>
       <c r="P398" s="43" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q398" s="44" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="R398" s="44" t="s">
         <v>153</v>
@@ -41270,10 +41270,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1084927E-9F50-4B36-82D0-DF33C1967E65}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -41294,38 +41294,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -41336,7 +41336,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -41345,26 +41345,26 @@
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -41378,21 +41378,21 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -41401,40 +41401,40 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -41443,12 +41443,12 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -41457,12 +41457,12 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B14" t="s">
         <v>638</v>
@@ -41471,12 +41471,12 @@
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -41490,21 +41490,21 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B16" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B17" t="s">
         <v>641</v>
@@ -41513,15 +41513,15 @@
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B18" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -41532,21 +41532,21 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B20" t="s">
         <v>118</v>
@@ -41560,7 +41560,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B21" t="s">
         <v>645</v>
@@ -41574,7 +41574,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B22" t="s">
         <v>648</v>
@@ -41583,12 +41583,12 @@
         <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B23" t="s">
         <v>656</v>
@@ -41597,7 +41597,7 @@
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -41605,783 +41605,797 @@
         <v>468</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>856</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>857</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B25" t="s">
-        <v>663</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>818</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>661</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B27" t="s">
-        <v>670</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B28" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>818</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B29" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>821</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B30" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>819</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>678</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>822</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B32" t="s">
-        <v>689</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>399</v>
+        <v>820</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B33" t="s">
-        <v>289</v>
+        <v>687</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>290</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B35" t="s">
-        <v>692</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
         <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>823</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B36" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C36" t="s">
         <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>400</v>
+        <v>821</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>694</v>
       </c>
       <c r="C37" t="s">
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>824</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B39" t="s">
-        <v>700</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
         <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>823</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>698</v>
       </c>
       <c r="C40" t="s">
         <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>826</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
         <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
         <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
         <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B44" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
         <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>827</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="C45" t="s">
         <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>830</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
         <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B47" t="s">
-        <v>713</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
         <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B48" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C48" t="s">
         <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B49" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C49" t="s">
         <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>91</v>
+        <v>831</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B50" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C50" t="s">
         <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>834</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B51" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C51" t="s">
         <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>92</v>
+        <v>832</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B52" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C52" t="s">
         <v>32</v>
       </c>
       <c r="D52" t="s">
-        <v>835</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B53" t="s">
-        <v>341</v>
+        <v>725</v>
       </c>
       <c r="C53" t="s">
         <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B54" t="s">
-        <v>732</v>
+        <v>342</v>
       </c>
       <c r="C54" t="s">
         <v>32</v>
       </c>
       <c r="D54" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>730</v>
       </c>
       <c r="C55" t="s">
         <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>93</v>
+        <v>835</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
         <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>838</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B57" t="s">
-        <v>741</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
         <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B58" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C58" t="s">
         <v>32</v>
       </c>
       <c r="D58" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B59" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C59" t="s">
         <v>32</v>
       </c>
       <c r="D59" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>744</v>
       </c>
       <c r="C60" t="s">
         <v>32</v>
       </c>
       <c r="D60" t="s">
-        <v>123</v>
+        <v>839</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B61" t="s">
-        <v>748</v>
+        <v>24</v>
       </c>
       <c r="C61" t="s">
         <v>32</v>
       </c>
       <c r="D61" t="s">
-        <v>842</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>746</v>
       </c>
       <c r="C62" t="s">
         <v>32</v>
       </c>
       <c r="D62" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B63" t="s">
-        <v>755</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
         <v>32</v>
       </c>
       <c r="D63" t="s">
-        <v>401</v>
+        <v>841</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B64" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C64" t="s">
         <v>32</v>
       </c>
       <c r="D64" t="s">
-        <v>138</v>
+        <v>402</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B65" t="s">
-        <v>389</v>
+        <v>756</v>
       </c>
       <c r="C65" t="s">
         <v>32</v>
       </c>
       <c r="D65" t="s">
-        <v>402</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B66" t="s">
-        <v>307</v>
+        <v>390</v>
       </c>
       <c r="C66" t="s">
         <v>32</v>
       </c>
       <c r="D66" t="s">
-        <v>124</v>
+        <v>403</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B67" t="s">
-        <v>761</v>
+        <v>308</v>
       </c>
       <c r="C67" t="s">
         <v>32</v>
       </c>
       <c r="D67" t="s">
-        <v>844</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B68" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="C68" t="s">
         <v>32</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>842</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B69" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="C69" t="s">
         <v>32</v>
       </c>
       <c r="D69" t="s">
-        <v>845</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B70" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="C70" t="s">
         <v>32</v>
       </c>
       <c r="D70" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B71" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C71" t="s">
         <v>32</v>
       </c>
       <c r="D71" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B72" t="s">
-        <v>696</v>
+        <v>776</v>
       </c>
       <c r="C72" t="s">
         <v>32</v>
       </c>
       <c r="D72" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>694</v>
       </c>
       <c r="C73" t="s">
         <v>32</v>
       </c>
       <c r="D73" t="s">
-        <v>125</v>
+        <v>846</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B74" t="s">
-        <v>781</v>
+        <v>96</v>
       </c>
       <c r="C74" t="s">
         <v>32</v>
       </c>
       <c r="D74" t="s">
-        <v>849</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B75" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C75" t="s">
         <v>32</v>
       </c>
       <c r="D75" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>782</v>
       </c>
       <c r="C76" t="s">
         <v>32</v>
       </c>
       <c r="D76" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B77" t="s">
-        <v>787</v>
+        <v>19</v>
       </c>
       <c r="C77" t="s">
         <v>32</v>
       </c>
       <c r="D77" t="s">
-        <v>403</v>
+        <v>849</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>785</v>
       </c>
       <c r="C78" t="s">
         <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>852</v>
+        <v>404</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B79" t="s">
-        <v>793</v>
+        <v>30</v>
       </c>
       <c r="C79" t="s">
         <v>32</v>
       </c>
       <c r="D79" t="s">
-        <v>853</v>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>619</v>
+      </c>
+      <c r="B80" t="s">
+        <v>791</v>
+      </c>
+      <c r="C80" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" t="s">
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -42395,7 +42409,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A2:XFD19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -42425,7 +42439,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -42446,16 +42460,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
